--- a/biology/Histoire de la zoologie et de la botanique/Morten_Thrane_Brünnich/Morten_Thrane_Brünnich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Morten_Thrane_Brünnich/Morten_Thrane_Brünnich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Morten_Thrane_Br%C3%BCnnich</t>
+          <t>Morten_Thrane_Brünnich</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morten (ou Martin) Thrane Brünnich (30 septembre 1737, Copenhague - 19 septembre 1827) est un zoologiste et un minéralogiste danois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Morten_Thrane_Br%C3%BCnnich</t>
+          <t>Morten_Thrane_Brünnich</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un peintre spécialisé dans les portraits Andreas Brunnich, il étudie tout d'abord les langues orientales et la théologie. Mais, après avoir lu des œuvres de Carl von Linné, il s'oriente bientôt vers l'histoire naturelle.
 Il participe à Danske Atlas (1763-1781) d'Erik Pontoppidan (1698-1764) en fournissant des observations d'insectes. Après avoir pris en charge les collections d'histoire naturelle de Christian Fleischer et du conseiller Thott, il s'oriente vers l'ornithologie et publie en 1763, Ornithologia Borealis, la première faune aviaire arctique, dans laquelle de nombreuses espèces sont décrites pour la première fois. Il y décrit les espèces rapportées par Fleischer de la presqu'île de Boothia. La même année il fait paraître un livre d'entomologie et un traité sur les eiders.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Morten_Thrane_Br%C3%BCnnich</t>
+          <t>Morten_Thrane_Brünnich</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prodromus insectologiæ Siælandicæ. Kopenhagen 1761.
 Die natürliche Historie des Eider-Vogels. Kopenhagen 1763.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Morten_Thrane_Br%C3%BCnnich</t>
+          <t>Morten_Thrane_Brünnich</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbara Mearns et Richard Mearns, Biographies for Birdwatchers: The Lives of Those Commemorated in Western Palearctic Bird Names, Londres, Academic Press, 1988,  XX + 490 p.  (ISBN 0-12-487422-3)</t>
         </is>
